--- a/cours_list.xlsx
+++ b/cours_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -32,43 +32,13 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Java</t>
+    <t>aaa</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>math</t>
   </si>
   <si>
-    <t>2025-03-05T01:41:32</t>
-  </si>
-  <si>
-    <t>drive systems</t>
-  </si>
-  <si>
-    <t>robotics</t>
-  </si>
-  <si>
-    <t>2025-04-14T16:51:15</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>Robotics</t>
-  </si>
-  <si>
-    <t>2025-04-14T21:05:44</t>
-  </si>
-  <si>
-    <t>brushless motors</t>
-  </si>
-  <si>
-    <t>2025-04-14T21:28:02</t>
-  </si>
-  <si>
-    <t>L298N</t>
-  </si>
-  <si>
-    <t>2025-04-14T21:30:16</t>
+    <t>2025-04-16T02:08:16</t>
   </si>
 </sst>
 </file>
@@ -134,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,8 +112,8 @@
   <cols>
     <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.73046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.7421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.80859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.25" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="20.24609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -173,7 +143,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>6</v>
@@ -182,90 +152,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
